--- a/XlsxToLua/bin/Debug/TestExcel/Hero.xlsx
+++ b/XlsxToLua/bin/Debug/TestExcel/Hero.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\表格导出工具 6.4\XlsxToLua\bin\Debug\TestExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ci\works\git\XlsxToLua\XlsxToLua\bin\Debug\TestExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,9 +63,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$heroType</t>
-  </si>
-  <si>
     <t>英雄名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -94,17 +91,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$heroRare</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>lang</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>notEmpty</t>
-  </si>
-  <si>
     <t>英雄初始星数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -117,24 +107,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$heroStar</t>
-  </si>
-  <si>
     <t>exportDatabaseTableName</t>
   </si>
   <si>
-    <t>heroId(INT)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rare(INT)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>defaultStar(INT)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>hero</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -151,10 +126,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>isOpen(TINYINT(1))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>true</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -190,10 +161,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>attributes(VARCHAR(256))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{"attack":{"physical":140,"magic":0,"canCrit":true,"hitRate":0.9,"ult":[{"name":"CoupDeGrace","params":["sector",150,0,true],"cd":5}]},"defence":{"physical":40,"magic":0},"hp":150,"modelSize":[3.5,4,8],"petPhrase":"Death to all who oppose me!"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -222,11 +189,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>type(INT)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>presentLevel(INT)</t>
+    <t>111;2222;3333;44</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arr[int]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arrTest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arr测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>111;211</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -369,72 +348,6 @@
     </tableStyle>
   </tableStyles>
   <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
     <mruColors>
       <color rgb="FFEAEAEA"/>
     </mruColors>
@@ -458,7 +371,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -740,11 +653,11 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -757,69 +670,76 @@
     <col min="6" max="6" width="17.5" style="3" customWidth="1"/>
     <col min="7" max="7" width="20.125" style="3" customWidth="1"/>
     <col min="8" max="8" width="111" style="3" customWidth="1"/>
-    <col min="9" max="9" width="24.5" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="3"/>
+    <col min="9" max="9" width="21.375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="30.625" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
+        <v>39</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="1" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+        <v>34</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="1" t="s">
@@ -829,63 +749,33 @@
         <v>9</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="1" t="s">
-        <v>21</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C4" s="2"/>
-      <c r="D4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>27</v>
-      </c>
+    </row>
+    <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C5" s="2"/>
-      <c r="D5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>1</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>2</v>
@@ -900,21 +790,24 @@
         <v>1</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+        <v>41</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>2</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>3</v>
@@ -929,15 +822,15 @@
         <v>1</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>3</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>4</v>
@@ -952,18 +845,21 @@
         <v>1</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+        <v>42</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>4</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>5</v>
@@ -978,10 +874,10 @@
         <v>1</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1012,18 +908,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/XlsxToLua/bin/Debug/TestExcel/Hero.xlsx
+++ b/XlsxToLua/bin/Debug/TestExcel/Hero.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -173,22 +173,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>玩家等级达到多少直接赠送</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>111;2222;3333;44</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -201,11 +185,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>111;211</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arr2[int]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>arr测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>111;211</t>
+    <t>arr2测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11,12,13;21,22</t>
+  </si>
+  <si>
+    <t>11,12,13;21,22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arr2Test</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -657,7 +660,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
+      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -701,10 +704,10 @@
         <v>33</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -730,8 +733,11 @@
       <c r="H2" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="I2" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="J2" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="1" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -758,10 +764,10 @@
         <v>35</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -796,10 +802,10 @@
         <v>37</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
@@ -848,10 +854,10 @@
         <v>29</v>
       </c>
       <c r="I8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">

--- a/XlsxToLua/bin/Debug/TestExcel/Hero.xlsx
+++ b/XlsxToLua/bin/Debug/TestExcel/Hero.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -209,6 +209,26 @@
   </si>
   <si>
     <t>arr2Test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tab测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11;21,22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tabTest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tab{n1 = int, pos={x=int, y=int}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12;23,24</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -656,11 +676,11 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
+      <selection pane="bottomLeft" activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -673,12 +693,13 @@
     <col min="6" max="6" width="17.5" style="3" customWidth="1"/>
     <col min="7" max="7" width="20.125" style="3" customWidth="1"/>
     <col min="8" max="8" width="111" style="3" customWidth="1"/>
-    <col min="9" max="9" width="21.375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="30.625" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="3"/>
+    <col min="9" max="9" width="35.375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="21.375" style="3" customWidth="1"/>
+    <col min="11" max="11" width="30.625" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -704,13 +725,16 @@
         <v>33</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -734,13 +758,16 @@
         <v>34</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" s="1" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -764,19 +791,22 @@
         <v>35</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -802,13 +832,16 @@
         <v>37</v>
       </c>
       <c r="I6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="K6" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>2</v>
       </c>
@@ -831,7 +864,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>3</v>
       </c>
@@ -854,13 +887,16 @@
         <v>29</v>
       </c>
       <c r="I8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J8" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="K8" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>4</v>
       </c>

--- a/XlsxToLua/bin/Debug/TestExcel/Hero.xlsx
+++ b/XlsxToLua/bin/Debug/TestExcel/Hero.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -216,19 +216,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>11;21,22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tabTest</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tab{n1 = int, pos={x=int, y=int}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12;23,24</t>
+    <t>arrTab测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arrTabTest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101,10.1;201,20.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101,10.2;202,20.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arrTab[n1 = int, n2 = float]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tab[n1 = int, pos={x=int, y=int}, n2 = float]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11;21,22;33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12;23,24;33</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -676,11 +696,11 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K10" sqref="K10"/>
+      <selection pane="bottomLeft" activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -696,10 +716,11 @@
     <col min="9" max="9" width="35.375" style="3" customWidth="1"/>
     <col min="10" max="10" width="21.375" style="3" customWidth="1"/>
     <col min="11" max="11" width="30.625" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="3"/>
+    <col min="12" max="12" width="35.25" style="3" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -733,8 +754,11 @@
       <c r="K1" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -758,7 +782,7 @@
         <v>34</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>48</v>
@@ -766,8 +790,11 @@
       <c r="K2" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="L2" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" s="1" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -791,7 +818,7 @@
         <v>35</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>43</v>
@@ -799,14 +826,17 @@
       <c r="K3" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="L3" s="1" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -832,7 +862,7 @@
         <v>37</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>47</v>
@@ -840,8 +870,11 @@
       <c r="K6" s="3" t="s">
         <v>39</v>
       </c>
+      <c r="L6" s="3" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>2</v>
       </c>
@@ -864,7 +897,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>3</v>
       </c>
@@ -887,7 +920,7 @@
         <v>29</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>46</v>
@@ -895,8 +928,11 @@
       <c r="K8" s="3" t="s">
         <v>42</v>
       </c>
+      <c r="L8" s="3" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="9" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>4</v>
       </c>
